--- a/DotNetExcel/bin/Debug/StarkBankMVP.xlsx
+++ b/DotNetExcel/bin/Debug/StarkBankMVP.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stark - Admin\Documents\StarkBankMVP\StarkBankMVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54707D33-A0C1-46C8-8E6B-9D6D1AC8B046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735968A3-3F80-47A8-A1FA-CADAFCB4F4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DD233689-9B57-48BF-9576-9FA43391D3F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="5" xr2:uid="{DD233689-9B57-48BF-9576-9FA43391D3F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
     <sheet name="Credentials" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="Consulta de Chaves Pix" sheetId="3" r:id="rId3"/>
-    <sheet name="Transferências Com Aprovação" sheetId="4" r:id="rId4"/>
-    <sheet name="Emissão de Invoice Pix" sheetId="5" r:id="rId5"/>
-    <sheet name="Consulta de Invoice Emitidas" sheetId="6" r:id="rId6"/>
+    <sheet name="Extrato" sheetId="7" r:id="rId3"/>
+    <sheet name="Consulta de Chaves Pix" sheetId="3" r:id="rId4"/>
+    <sheet name="Transferências Com Aprovação" sheetId="4" r:id="rId5"/>
+    <sheet name="Consulta de Boletos Emitidos" sheetId="8" r:id="rId6"/>
+    <sheet name="Emissão de Invoice Pix" sheetId="5" r:id="rId7"/>
+    <sheet name="Consulta de Invoice Emitidas" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
   <si>
     <t>Chave Pix</t>
   </si>
@@ -176,17 +178,63 @@
   </si>
   <si>
     <t>Saldo:</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Categoria da Transação</t>
+  </si>
+  <si>
+    <t>Id da Categoria</t>
+  </si>
+  <si>
+    <t>Saldo final</t>
+  </si>
+  <si>
+    <t>Id da Transação</t>
+  </si>
+  <si>
+    <t>Logradouro</t>
+  </si>
+  <si>
+    <t>Complemento</t>
+  </si>
+  <si>
+    <t>Bairro</t>
+  </si>
+  <si>
+    <t>Cidade</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>CEP</t>
+  </si>
+  <si>
+    <t>Data de Emissão</t>
+  </si>
+  <si>
+    <t>Data de Credito</t>
+  </si>
+  <si>
+    <t>Linha digitavel</t>
+  </si>
+  <si>
+    <t>Id fo boleto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ \-\ hh:mm:ss"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -291,7 +339,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -349,6 +397,13 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -388,7 +443,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F70BF05619C7F14D001A2031EA2288CEEF621"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19A5453E610F18142DA1BAA91D29A587ED2E11"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -422,6 +477,23 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="190EB7A1C18BFD142EB1A75D1D8ECE9AC6A921"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3096"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="1D3C8440119274147F5190E81CB29314F1A0B1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
@@ -434,7 +506,24 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="192AED9321906F1430518AA91C61F691A49AE1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -451,7 +540,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -473,7 +562,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1626B229C1652514446181B314A00A77AF6681"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="17053D61D1F15A1482019B2C1A4E6D57E3A971"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -486,6 +575,57 @@
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1D1500907189BD14DA51B2181B162FBD75FE31"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1BD6BA4211BC3E14DAF185961A2B376D133421"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1CC3318201EE2A1421C19CEB15987574AED511"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -502,12 +642,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1CC3318201EE2A1421C19CEB15987574AED511"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1626B229C1652514446181B314A00A77AF6681"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -519,12 +659,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1BD6BA4211BC3E14DAF185961A2B376D133421"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F70BF05619C7F14D001A2031EA2288CEEF621"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -536,70 +676,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1D1500907189BD14DA51B2181B162FBD75FE31"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="17FA434AF19D0F14BB3186971AC86AABFB7FD1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="17053D61D1F15A1482019B2C1A4E6D57E3A971"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19A5453E610F18142DA1BAA91D29A587ED2E11"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="190EB7A1C18BFD142EB1A75D1D8ECE9AC6A921"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3096"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1112,6 +1201,73 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
+          <xdr:colOff>1123950</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>895350</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10241" name="_ActiveXWrapper1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10241"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001280000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
           <xdr:colOff>876300</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
@@ -1130,7 +1286,7 @@
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000010C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000010C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1192,7 +1348,7 @@
                   <a14:compatExt spid="_x0000_s3074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000020C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000020C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1234,7 +1390,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -1259,7 +1415,7 @@
                   <a14:compatExt spid="_x0000_s4097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1301,32 +1457,32 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:colOff>1123950</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>800100</xdr:colOff>
+          <xdr:colOff>895350</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6145" name="_ActiveXWrapper1" hidden="1">
+            <xdr:cNvPr id="16385" name="_ActiveXWrapper1" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6145"/>
+                  <a14:compatExt spid="_x0000_s16385"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1368,7 +1524,74 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>800100</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6145" name="_ActiveXWrapper1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6145"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000001180000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -1393,7 +1616,7 @@
                   <a14:compatExt spid="_x0000_s8193"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000001200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1735,8 +1958,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10:T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1746,28 +1969,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -1958,30 +2181,30 @@
       <c r="T9" s="17"/>
     </row>
     <row r="10" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
@@ -2050,30 +2273,30 @@
       <c r="T13" s="17"/>
     </row>
     <row r="14" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
@@ -2157,8 +2380,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId4" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="1025" r:id="rId4" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId6" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId10" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId12" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId12" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId14" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId14" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId16" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>523875</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId16" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId18" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -2177,182 +2575,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId4" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId6" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>523875</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId6" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId8" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId8" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId10" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId10" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId12" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId12" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId14" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>342900</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId14" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId16" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId16" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId18" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>495300</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId18" name="_ActiveXWrapper1"/>
+        <control shapeId="1041" r:id="rId18" name="_ActiveXWrapper8"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -2377,6 +2600,94 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765C0307-1BBC-4F1B-A539-9EA2DDDB1C4B}">
+  <sheetPr codeName="Planilha7"/>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="20.85546875" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10241" r:id="rId4" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1123950</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>895350</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10241" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3398AC-EC0F-419C-B3DC-65B3AA806674}">
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:K9"/>
@@ -2446,8 +2757,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="3074" r:id="rId4" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>333375</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3074" r:id="rId4" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3073" r:id="rId6" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -2466,44 +2802,21 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3073" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>333375</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3074" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="3073" r:id="rId6" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C7D071-5CAD-4E99-8878-39A60CDC47FD}">
   <sheetPr codeName="Planilha4"/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2584,7 +2897,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6501534D-9E8E-453D-B261-17754C05062B}">
+  <sheetPr codeName="Planilha8"/>
+  <dimension ref="A1:V9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="20.85546875" style="8" customWidth="1"/>
+    <col min="10" max="22" width="9.140625" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="U9" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="V9" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16385" r:id="rId4" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1123950</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>895350</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16385" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04BC81C-AF4F-4056-AB23-1893055E9200}">
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:M9"/>
@@ -2682,7 +3123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF22919-66D6-4ABA-AD2C-41EBDF00D9EF}">
   <sheetPr codeName="Planilha6"/>
   <dimension ref="A1:P9"/>
@@ -2796,7 +3237,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB0F6DE3-3B15-4E7E-8070-2D1B87501C81}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4DB2788-CC56-4D05-B33F-B4FD24B07D66}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>